--- a/data/watershed.xlsx
+++ b/data/watershed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ghnfarid\Projects\meteo-interp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8144B1-CD50-4788-9301-CA32B1BF8F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC816778-BB21-4C6C-BB91-4A9B8AFA3106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,9 +468,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>54</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>

--- a/data/watershed.xlsx
+++ b/data/watershed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ghnfarid\Projects\meteo-interp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC816778-BB21-4C6C-BB91-4A9B8AFA3106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B2839B-F522-4A7E-8F2F-3DDCF20CD0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,64 @@
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Farid Gholamin</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{332BCAD7-4379-4A4B-A8AC-97059BE746B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farid Gholamin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+latitude of the interpolated location</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{761F34A8-E5DC-47B7-84C1-4C2FE4E72687}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farid Gholamin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+longitude of the interpolated location</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +120,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -104,16 +183,18 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,11 +497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +514,7 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +600,6 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
     </row>
@@ -874,12 +954,8 @@
       <c r="E82" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E82" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E82">
-      <sortCondition ref="B1:B82"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>